--- a/biology/Médecine/Structure_lymphoïde_tertiaire/Structure_lymphoïde_tertiaire.xlsx
+++ b/biology/Médecine/Structure_lymphoïde_tertiaire/Structure_lymphoïde_tertiaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Structure_lympho%C3%AFde_tertiaire</t>
+          <t>Structure_lymphoïde_tertiaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une structure lymphoïde tertiaire (SLT) est un agrégat cellulaire riche en lymphocytes B, que l'on trouve à proximité de certaines tumeurs cancéreuses.
-Les patients dont les tumeurs sont riches en SLT présentent un taux de survie supérieur à ceux dont les tumeurs en sont pauvres ou sont fortement vascularisées, et leur taux de réponse à l'immunothérapie par le pembrolizumab est également supérieur, d'environ 50 %. Une explication possible est que les lymphocytes B « apprennent » aux lymphocytes T cytotoxiques, via la production d'anticorps, à reconnaître les antigènes tumoraux[1].
+Les patients dont les tumeurs sont riches en SLT présentent un taux de survie supérieur à ceux dont les tumeurs en sont pauvres ou sont fortement vascularisées, et leur taux de réponse à l'immunothérapie par le pembrolizumab est également supérieur, d'environ 50 %. Une explication possible est que les lymphocytes B « apprennent » aux lymphocytes T cytotoxiques, via la production d'anticorps, à reconnaître les antigènes tumoraux.
 </t>
         </is>
       </c>
